--- a/Test-data/IISPTestData.xlsx
+++ b/Test-data/IISPTestData.xlsx
@@ -5,23 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\IslamicInvest_Cucumber_Framework\Test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\IslamicInvest_Cucumber_Framework\IslamicInvest_Cucumber_Framework\Test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12345" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="IISP_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="ChargesMaintenance" sheetId="21" r:id="rId2"/>
     <sheet name="ProductType" sheetId="22" r:id="rId3"/>
+    <sheet name="TargetMaintenance" sheetId="23" r:id="rId4"/>
+    <sheet name="SettlementPolicy" sheetId="24" r:id="rId5"/>
+    <sheet name="YieldRoster" sheetId="25" r:id="rId6"/>
+    <sheet name="VendorInformation" sheetId="26" r:id="rId7"/>
+    <sheet name="ThirdPartyDetails" sheetId="27" r:id="rId8"/>
+    <sheet name="Deviation" sheetId="28" r:id="rId9"/>
+    <sheet name="BoardMember" sheetId="29" r:id="rId10"/>
+    <sheet name="InsuranceType" sheetId="30" r:id="rId11"/>
+    <sheet name="InsuranceCompany" sheetId="31" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>Stage</t>
   </si>
@@ -72,16 +81,253 @@
   </si>
   <si>
     <t>Long Description</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>productclassCode</t>
+  </si>
+  <si>
+    <t>countryCode</t>
+  </si>
+  <si>
+    <t>TargetYear</t>
+  </si>
+  <si>
+    <t>TargetAmountjan</t>
+  </si>
+  <si>
+    <t>TargetAmountfeb</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>10000.000</t>
+  </si>
+  <si>
+    <t>1166</t>
+  </si>
+  <si>
+    <t>10000.859</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>985840.000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+policyno
+</t>
+  </si>
+  <si>
+    <t>policydescription</t>
+  </si>
+  <si>
+    <t>specificproclasscode</t>
+  </si>
+  <si>
+    <t>maxnbroftrialsinput</t>
+  </si>
+  <si>
+    <t>trialfreeinput</t>
+  </si>
+  <si>
+    <t>8427</t>
+  </si>
+  <si>
+    <t>Sett Policy desc-1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9874</t>
+  </si>
+  <si>
+    <t>Sett Policy desc-2</t>
+  </si>
+  <si>
+    <t>8426</t>
+  </si>
+  <si>
+    <t>yeildrostercode</t>
+  </si>
+  <si>
+    <t>rosterbriefdesc</t>
+  </si>
+  <si>
+    <t>rosterlongdesc</t>
+  </si>
+  <si>
+    <t>r1fromamount</t>
+  </si>
+  <si>
+    <t>r1toamount</t>
+  </si>
+  <si>
+    <t>r1nondomyield</t>
+  </si>
+  <si>
+    <t>r1domyield</t>
+  </si>
+  <si>
+    <t>r1staffyield</t>
+  </si>
+  <si>
+    <t>r1nondomyiedlmin</t>
+  </si>
+  <si>
+    <t>r1nondomyiedlmax</t>
+  </si>
+  <si>
+    <t>r1domyiedldmin</t>
+  </si>
+  <si>
+    <t>r1domyiedlmax</t>
+  </si>
+  <si>
+    <t>r1staffyieldmin</t>
+  </si>
+  <si>
+    <t>r1staffyieldmax</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>VendorCifCode</t>
+  </si>
+  <si>
+    <t>AccBranch</t>
+  </si>
+  <si>
+    <t>AccCurrency</t>
+  </si>
+  <si>
+    <t>AccGlCode</t>
+  </si>
+  <si>
+    <t>AccCifCode</t>
+  </si>
+  <si>
+    <t>AccSl</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>100100</t>
+  </si>
+  <si>
+    <t>shortname</t>
+  </si>
+  <si>
+    <t>longname</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>address4</t>
+  </si>
+  <si>
+    <t>telno</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BriefArab Description </t>
+  </si>
+  <si>
+    <t>LongArab description</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>ARAB</t>
+  </si>
+  <si>
+    <t>Arabic long</t>
+  </si>
+  <si>
+    <t>Cifno</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>SETTLEMENT_PRIORITY_NO</t>
+  </si>
+  <si>
+    <t>InsuranceType</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>4444</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -167,6 +413,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,6 +776,147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
@@ -574,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,14 +986,443 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>100</v>
+      <c r="A2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Test-data/IISPTestData.xlsx
+++ b/Test-data/IISPTestData.xlsx
@@ -1386,7 +1386,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test-data/IISPTestData.xlsx
+++ b/Test-data/IISPTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12345" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12345" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="IISP_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,16 @@
     <sheet name="BoardMember" sheetId="29" r:id="rId10"/>
     <sheet name="InsuranceType" sheetId="30" r:id="rId11"/>
     <sheet name="InsuranceCompany" sheetId="31" r:id="rId12"/>
+    <sheet name="ReasonCodesMaintenance" sheetId="32" r:id="rId13"/>
+    <sheet name="SubPurposeCodesMaintenance" sheetId="33" r:id="rId14"/>
+    <sheet name="LeasedAssetCode" sheetId="34" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
   <si>
     <t>Stage</t>
   </si>
@@ -311,6 +314,72 @@
   </si>
   <si>
     <t>4444</t>
+  </si>
+  <si>
+    <t>ReasonCode</t>
+  </si>
+  <si>
+    <t>ArabicBrief</t>
+  </si>
+  <si>
+    <t>ArabicLong</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>SubPurposeCode</t>
+  </si>
+  <si>
+    <t>MainPurpose</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>arabicbriefDescription</t>
+  </si>
+  <si>
+    <t>arabiclongDescription</t>
+  </si>
+  <si>
+    <t>Purchasecurrency</t>
+  </si>
+  <si>
+    <t>Purchasevalue</t>
+  </si>
+  <si>
+    <t>Purchasecurrencyrate</t>
+  </si>
+  <si>
+    <t>Purchasecurrencyratemutliplydiv</t>
+  </si>
+  <si>
+    <t>salescurrency</t>
+  </si>
+  <si>
+    <t>salescurrencyrate</t>
+  </si>
+  <si>
+    <t>salesvalue</t>
+  </si>
+  <si>
+    <t>salescurrencyratemultiplydiv</t>
+  </si>
+  <si>
+    <t>8572</t>
+  </si>
+  <si>
+    <t>TEST ASSET</t>
+  </si>
+  <si>
+    <t>TEST ASSET LONG</t>
+  </si>
+  <si>
+    <t>TEST ASSET Long</t>
   </si>
 </sst>
 </file>
@@ -392,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -415,6 +484,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -910,6 +981,207 @@
       </c>
       <c r="G2" s="9" t="s">
         <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="12">
+        <v>840</v>
+      </c>
+      <c r="G2" s="12">
+        <v>4000</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1.56</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>586</v>
+      </c>
+      <c r="K2" s="12">
+        <v>2.56</v>
+      </c>
+      <c r="L2" s="12">
+        <v>2000</v>
+      </c>
+      <c r="M2" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
